--- a/study1/presentation_for_paper/study1_mbti_type_distribution_original_sampled.xlsx
+++ b/study1/presentation_for_paper/study1_mbti_type_distribution_original_sampled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{922B23CA-8657-4FA5-AE58-452624A3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{922B23CA-8657-4FA5-AE58-452624A3E46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBDC847-1EE5-4DAE-A4F7-1D61E29AD0FB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CD4ABADB-3C77-4B02-9017-3056B0D873DF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="3">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -63,8 +63,36 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
-  <valueMetadata count="3">
+  <valueMetadata count="7">
     <bk>
       <rc t="1" v="0"/>
     </bk>
@@ -73,6 +101,18 @@
     </bk>
     <bk>
       <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -150,44 +190,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>254431</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59790844-E316-EDCC-3CBA-2169B1234304}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B47277F-9E16-D98A-B81A-D366E0E3767C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="450850" y="374650"/>
-          <a:ext cx="8388781" cy="2825895"/>
+          <a:off x="806450" y="279400"/>
+          <a:ext cx="10064750" cy="2368550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -236,7 +293,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>0</v>
     <v>5</v>
@@ -249,6 +306,22 @@
     <v>2</v>
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+  </rv>
 </rvData>
 </file>
 
@@ -266,6 +339,10 @@
   <rel r:id="rId1"/>
   <rel r:id="rId2"/>
   <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
 </richValueRels>
 </file>
 
@@ -586,26 +663,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD3A898-547C-4A83-A8FF-8F7E9C5DBE3C}">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="3" width="40.25" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="2" max="4" width="40.25" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="185.5" customHeight="1">
+    <row r="2" spans="2:5" ht="185.5" customHeight="1">
       <c r="B2" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C2" s="1" t="e" vm="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D2" s="2" t="e" vm="3">
+      <c r="E2" s="2" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="186" customHeight="1">
+      <c r="B5" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C5" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D5" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E5" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
     </row>
@@ -619,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A470EDE-97A1-4E0E-8871-10786E3FDAD5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
